--- a/src/data/fall19/careers.xlsx
+++ b/src/data/fall19/careers.xlsx
@@ -8,23 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farbodrafezy/Documents/personal/projects/dspuci-website-gatsby/src/data/fall19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B43ADC-1CA1-BB46-968A-955991DE7E34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C335FFE1-BE06-AD4A-B85B-77031CC28562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internships 2019" sheetId="1" r:id="rId1"/>
     <sheet name="Full Time Offers 2019" sheetId="2" r:id="rId2"/>
     <sheet name="Full Time Offers 2020" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -563,12 +561,6 @@
     <t>Farbod Rafezy</t>
   </si>
   <si>
-    <t>ASUCI</t>
-  </si>
-  <si>
-    <t>Concerts</t>
-  </si>
-  <si>
     <t>Michael Duan</t>
   </si>
   <si>
@@ -581,36 +573,21 @@
     <t>San Diego, CA</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>Neil Wong</t>
   </si>
   <si>
     <t>Esurance</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
     <t>Cody Enokida</t>
   </si>
   <si>
-    <t>Spirit</t>
-  </si>
-  <si>
     <t>Softech &amp; Associates</t>
   </si>
   <si>
-    <t>indian subcontinental club</t>
-  </si>
-  <si>
     <t>Derek Chang</t>
   </si>
   <si>
-    <t>UFA</t>
-  </si>
-  <si>
     <t>KIGT</t>
   </si>
   <si>
@@ -620,9 +597,6 @@
     <t>Gaurav Mohan</t>
   </si>
   <si>
-    <t>SCNO</t>
-  </si>
-  <si>
     <t>Business Intelligence Analyst</t>
   </si>
   <si>
@@ -632,15 +606,9 @@
     <t>Data Analytics</t>
   </si>
   <si>
-    <t>MUSA board</t>
-  </si>
-  <si>
     <t>Sunnyvale, CA</t>
   </si>
   <si>
-    <t>MUSA reps</t>
-  </si>
-  <si>
     <t>Project Management Intern</t>
   </si>
   <si>
@@ -659,15 +627,9 @@
     <t>UCI Student Center &amp; Event Services</t>
   </si>
   <si>
-    <t>AMP</t>
-  </si>
-  <si>
     <t>Teaching Assistant</t>
   </si>
   <si>
-    <t>kappa alpha theta</t>
-  </si>
-  <si>
     <t>TEALSK12</t>
   </si>
   <si>
@@ -686,208 +648,40 @@
     <t>Newport, CA</t>
   </si>
   <si>
-    <t>APhiO</t>
-  </si>
-  <si>
     <t>Alec Wong</t>
   </si>
   <si>
     <t>Sourcer</t>
   </si>
   <si>
-    <t>Chinese Association</t>
-  </si>
-  <si>
     <t>Precision Castparts</t>
   </si>
   <si>
     <t>Santa Ana, CA</t>
   </si>
   <si>
-    <t>MAISS</t>
-  </si>
-  <si>
     <t>Mohit Shah</t>
   </si>
   <si>
-    <t>ICS student council</t>
-  </si>
-  <si>
     <t>MBA Program Student Assistant</t>
   </si>
   <si>
     <t>The Paul Merage School of Business</t>
   </si>
   <si>
-    <t>IM soccer</t>
-  </si>
-  <si>
     <t>Julie Trinh</t>
   </si>
   <si>
-    <t>IM volleyball</t>
-  </si>
-  <si>
     <t>Administrative Intern</t>
   </si>
   <si>
     <t>UCI Office of the Provost: Academic Planning</t>
   </si>
   <si>
-    <t>blockchain UCI</t>
-  </si>
-  <si>
     <t>Alan Lim</t>
   </si>
   <si>
     <t>Specialty Masters Assistant</t>
-  </si>
-  <si>
-    <t>ski &amp; snowboard club team</t>
-  </si>
-  <si>
-    <t>dialogue society</t>
-  </si>
-  <si>
-    <t>iranian student union</t>
-  </si>
-  <si>
-    <t>anteaters hab 4 hum</t>
-  </si>
-  <si>
-    <t>boxing club</t>
-  </si>
-  <si>
-    <t>Accounting Ass</t>
-  </si>
-  <si>
-    <t>Marketing Ass</t>
-  </si>
-  <si>
-    <t>SPOP</t>
-  </si>
-  <si>
-    <t>campus reps</t>
-  </si>
-  <si>
-    <t>renegade</t>
-  </si>
-  <si>
-    <t>UBA</t>
-  </si>
-  <si>
-    <t>dragonboat</t>
-  </si>
-  <si>
-    <t>UCI zamana</t>
-  </si>
-  <si>
-    <t>new venture</t>
-  </si>
-  <si>
-    <t>akdphi</t>
-  </si>
-  <si>
-    <t>center for student leadership</t>
-  </si>
-  <si>
-    <t>LTD</t>
-  </si>
-  <si>
-    <t>LEADS</t>
-  </si>
-  <si>
-    <t>UCEAP</t>
-  </si>
-  <si>
-    <t>admin intern program</t>
-  </si>
-  <si>
-    <t>academic affairs</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Business Administration</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Emily Su</t>
-  </si>
-  <si>
-    <t>Business Information Management</t>
-  </si>
-  <si>
-    <t>Business Economics</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>Ryan Eshaghi</t>
-  </si>
-  <si>
-    <t>12 second years</t>
-  </si>
-  <si>
-    <t>19 BA</t>
-  </si>
-  <si>
-    <t>20 F</t>
-  </si>
-  <si>
-    <t>12 third years</t>
-  </si>
-  <si>
-    <t>14 BE</t>
-  </si>
-  <si>
-    <t>24 M</t>
-  </si>
-  <si>
-    <t>19 fourth years</t>
-  </si>
-  <si>
-    <t>9 CS</t>
-  </si>
-  <si>
-    <t>1 fifth year</t>
-  </si>
-  <si>
-    <t>2 BIM</t>
   </si>
 </sst>
 </file>
@@ -912,36 +706,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -956,14 +726,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,7 +950,7 @@
   </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -1959,30 +1725,30 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>170</v>
@@ -1993,13 +1759,13 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>170</v>
@@ -2010,64 +1776,64 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>170</v>
@@ -2078,61 +1844,61 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>19</v>
@@ -2140,13 +1906,13 @@
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>19</v>
@@ -2154,13 +1920,13 @@
     </row>
     <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>19</v>
@@ -2180,7 +1946,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2414,7 +2180,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
@@ -2485,1045 +2251,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21" s="4">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="4">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="4">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="5">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="5">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="5">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="5">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="5">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="5">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="5">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="5">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="5">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="5">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="5">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="5">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="5">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="5">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="5">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="5">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="5">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B44" s="5">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="6">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>